--- a/Bin/Server/DataConfig/Excel/DescData.xlsx
+++ b/Bin/Server/DataConfig/Excel/DescData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Property1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataNode" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -101,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -113,6 +113,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -312,13 +317,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -652,42 +660,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="32.6640625" customWidth="1"/>
-    <col min="13" max="14" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="27.625" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="32.625" customWidth="1"/>
+    <col min="13" max="14" width="20.125" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
     <col min="16" max="17" width="21.5" customWidth="1"/>
-    <col min="18" max="18" width="15.1640625" customWidth="1"/>
+    <col min="18" max="18" width="15.125" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
     <col min="20" max="20" width="16.5" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" customWidth="1"/>
-    <col min="23" max="23" width="20.1640625" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" customWidth="1"/>
-    <col min="25" max="25" width="20.1640625" customWidth="1"/>
-    <col min="26" max="27" width="17.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.125" customWidth="1"/>
+    <col min="23" max="23" width="20.125" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="20.125" customWidth="1"/>
+    <col min="26" max="27" width="17.625" customWidth="1"/>
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -869,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1100,9 +1108,10 @@
       <c r="D59" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:H6 B7:J7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:H6 B7:J7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Bin/Server/DataConfig/Excel/DescData.xlsx
+++ b/Bin/Server/DataConfig/Excel/DescData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ARK\Bin\Server\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -272,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,9 +311,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,41 +658,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="3" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="27.625" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="12" max="12" width="32.625" customWidth="1"/>
-    <col min="13" max="14" width="20.125" customWidth="1"/>
-    <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="17" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="10" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="13" width="21.5" customWidth="1"/>
+    <col min="14" max="14" width="15.125" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
     <col min="18" max="18" width="15.125" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="16.5" customWidth="1"/>
-    <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.125" customWidth="1"/>
-    <col min="23" max="23" width="20.125" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="20.125" customWidth="1"/>
-    <col min="26" max="27" width="17.625" customWidth="1"/>
-    <col min="28" max="28" width="24" customWidth="1"/>
+    <col min="19" max="19" width="20.125" customWidth="1"/>
+    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="20.125" customWidth="1"/>
+    <col min="22" max="23" width="17.625" customWidth="1"/>
+    <col min="24" max="24" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -877,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -902,216 +896,12 @@
       <c r="H8" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="13"/>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
-      <c r="D42" s="13"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
-      <c r="D43" s="13"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="13"/>
-      <c r="D45" s="13"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="13"/>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="13"/>
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="13"/>
-      <c r="D48" s="13"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="13"/>
-      <c r="D49" s="13"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="13"/>
-      <c r="D50" s="13"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="13"/>
-      <c r="D51" s="13"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="13"/>
-      <c r="D52" s="13"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="13"/>
-      <c r="D53" s="13"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="13"/>
-      <c r="D54" s="13"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="13"/>
-      <c r="D55" s="13"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="13"/>
-      <c r="D56" s="13"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="13"/>
-      <c r="D57" s="13"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="13"/>
-      <c r="D58" s="13"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="13"/>
-      <c r="D59" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:H6 B7:J7" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:H6 B7:H7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
